--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="119">
   <si>
     <t>Sezione</t>
   </si>
@@ -38,27 +38,27 @@
     <t>Atto di matrimonio</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Atto di matrimonio straniero, tradotto e legalizzato</t>
+  </si>
+  <si>
+    <t>Certificato di residenza</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>121-quater</t>
+  </si>
+  <si>
     <t>SI</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Atto di matrimonio straniero, tradotto e legalizzato</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Certificato di residenza</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>121-quater</t>
-  </si>
-  <si>
     <t>Formazione atto</t>
   </si>
   <si>
@@ -348,12 +348,6 @@
   </si>
   <si>
     <t>foroAvvocatoConiuge2</t>
-  </si>
-  <si>
-    <t>Accordo Separazione</t>
-  </si>
-  <si>
-    <t>evento.separazione.accordoSeparazione</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -408,7 +402,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -416,34 +410,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.7890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="37.23046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="18.28125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="46.78515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="35.62890625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.78515625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -494,7 +489,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -511,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
@@ -528,13 +523,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -574,7 +569,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
@@ -594,7 +589,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
@@ -614,7 +609,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>17</v>
@@ -634,7 +629,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>17</v>
@@ -654,7 +649,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>27</v>
@@ -674,7 +669,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>27</v>
@@ -694,7 +689,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>27</v>
@@ -714,7 +709,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>27</v>
@@ -734,7 +729,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>27</v>
@@ -754,7 +749,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>27</v>
@@ -774,7 +769,7 @@
         <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>27</v>
@@ -794,7 +789,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>27</v>
@@ -814,7 +809,7 @@
         <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>27</v>
@@ -834,7 +829,7 @@
         <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>27</v>
@@ -854,7 +849,7 @@
         <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>27</v>
@@ -863,7 +858,7 @@
         <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -874,7 +869,7 @@
         <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>27</v>
@@ -883,7 +878,7 @@
         <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -894,7 +889,7 @@
         <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>51</v>
@@ -914,7 +909,7 @@
         <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>51</v>
@@ -923,7 +918,7 @@
         <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -934,7 +929,7 @@
         <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>51</v>
@@ -954,7 +949,7 @@
         <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>59</v>
@@ -963,7 +958,7 @@
         <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -974,7 +969,7 @@
         <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>59</v>
@@ -994,7 +989,7 @@
         <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>59</v>
@@ -1014,7 +1009,7 @@
         <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>59</v>
@@ -1034,7 +1029,7 @@
         <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>59</v>
@@ -1054,7 +1049,7 @@
         <v>69</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>59</v>
@@ -1074,7 +1069,7 @@
         <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>59</v>
@@ -1094,7 +1089,7 @@
         <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>59</v>
@@ -1114,7 +1109,7 @@
         <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>59</v>
@@ -1134,7 +1129,7 @@
         <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>59</v>
@@ -1154,7 +1149,7 @@
         <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>59</v>
@@ -1174,7 +1169,7 @@
         <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>59</v>
@@ -1194,7 +1189,7 @@
         <v>83</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>59</v>
@@ -1214,7 +1209,7 @@
         <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>59</v>
@@ -1234,7 +1229,7 @@
         <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>59</v>
@@ -1254,7 +1249,7 @@
         <v>89</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>59</v>
@@ -1274,7 +1269,7 @@
         <v>91</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>59</v>
@@ -1294,7 +1289,7 @@
         <v>93</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>59</v>
@@ -1314,7 +1309,7 @@
         <v>95</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>59</v>
@@ -1334,7 +1329,7 @@
         <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>59</v>
@@ -1354,7 +1349,7 @@
         <v>99</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>59</v>
@@ -1374,7 +1369,7 @@
         <v>101</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>59</v>
@@ -1394,7 +1389,7 @@
         <v>58</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>104</v>
@@ -1403,7 +1398,7 @@
         <v>60</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
@@ -1414,7 +1409,7 @@
         <v>61</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>104</v>
@@ -1434,7 +1429,7 @@
         <v>63</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>104</v>
@@ -1454,7 +1449,7 @@
         <v>65</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>104</v>
@@ -1474,7 +1469,7 @@
         <v>67</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>104</v>
@@ -1494,7 +1489,7 @@
         <v>69</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>104</v>
@@ -1514,7 +1509,7 @@
         <v>71</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>104</v>
@@ -1534,7 +1529,7 @@
         <v>73</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>104</v>
@@ -1554,7 +1549,7 @@
         <v>75</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>104</v>
@@ -1574,7 +1569,7 @@
         <v>77</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>104</v>
@@ -1594,7 +1589,7 @@
         <v>79</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>104</v>
@@ -1614,7 +1609,7 @@
         <v>81</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>104</v>
@@ -1634,7 +1629,7 @@
         <v>83</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>104</v>
@@ -1654,7 +1649,7 @@
         <v>85</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>104</v>
@@ -1674,7 +1669,7 @@
         <v>87</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>104</v>
@@ -1694,7 +1689,7 @@
         <v>89</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>104</v>
@@ -1714,7 +1709,7 @@
         <v>91</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>104</v>
@@ -1734,7 +1729,7 @@
         <v>93</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>104</v>
@@ -1754,7 +1749,7 @@
         <v>95</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>104</v>
@@ -1774,7 +1769,7 @@
         <v>97</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>104</v>
@@ -1794,7 +1789,7 @@
         <v>99</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>104</v>
@@ -1814,7 +1809,7 @@
         <v>101</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>104</v>
@@ -1834,7 +1829,7 @@
         <v>58</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>106</v>
@@ -1843,7 +1838,7 @@
         <v>60</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71">
@@ -1854,7 +1849,7 @@
         <v>61</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>106</v>
@@ -1863,7 +1858,7 @@
         <v>62</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72">
@@ -1874,7 +1869,7 @@
         <v>107</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>51</v>
@@ -1894,7 +1889,7 @@
         <v>58</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>110</v>
@@ -1903,7 +1898,7 @@
         <v>60</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74">
@@ -1914,7 +1909,7 @@
         <v>61</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>110</v>
@@ -1923,7 +1918,7 @@
         <v>62</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
@@ -1934,7 +1929,7 @@
         <v>107</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>51</v>
@@ -1951,16 +1946,16 @@
         <v>112</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -1971,16 +1966,16 @@
         <v>112</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -1991,531 +1986,22 @@
         <v>112</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F90" s="2" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{614F1C63-5EBD-43F2-A58B-6BB459ED96A2}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C52351A3-0E6B-4396-9611-A0ABBE315665}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E03FB9E-5D9D-4A34-9843-57A165467446}"/>
 </file>
--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="119">
   <si>
     <t>Sezione</t>
   </si>
@@ -164,12 +164,18 @@
     <t>Dettaglio accordo</t>
   </si>
   <si>
+    <t>Tipo accordo</t>
+  </si>
+  <si>
+    <t>evento.separazione</t>
+  </si>
+  <si>
+    <t>tipoAccordo</t>
+  </si>
+  <si>
     <t>Parte in causa in giudizio pendente</t>
   </si>
   <si>
-    <t>evento.separazione</t>
-  </si>
-  <si>
     <t>parteInGiudizioPendente</t>
   </si>
   <si>
@@ -351,12 +357,6 @@
   </si>
   <si>
     <t>Dettagli evento</t>
-  </si>
-  <si>
-    <t>Tipo accordo</t>
-  </si>
-  <si>
-    <t>tipoAccordo</t>
   </si>
   <si>
     <t>Presenza avvocato Marito</t>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -909,7 +909,7 @@
         <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>51</v>
@@ -918,7 +918,7 @@
         <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -929,7 +929,7 @@
         <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>51</v>
@@ -938,52 +938,52 @@
         <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>63</v>
@@ -992,7 +992,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>64</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>65</v>
@@ -1012,7 +1012,7 @@
         <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>66</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>67</v>
@@ -1032,7 +1032,7 @@
         <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>68</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>69</v>
@@ -1052,7 +1052,7 @@
         <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>70</v>
@@ -1063,16 +1063,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>72</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>73</v>
@@ -1092,7 +1092,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>74</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>75</v>
@@ -1112,7 +1112,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>76</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>77</v>
@@ -1132,7 +1132,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>78</v>
@@ -1143,16 +1143,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>80</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>81</v>
@@ -1172,7 +1172,7 @@
         <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>82</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>83</v>
@@ -1192,7 +1192,7 @@
         <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>84</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>85</v>
@@ -1212,7 +1212,7 @@
         <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>86</v>
@@ -1223,16 +1223,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>88</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>89</v>
@@ -1252,7 +1252,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>90</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>91</v>
@@ -1272,7 +1272,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>92</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>93</v>
@@ -1292,7 +1292,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>94</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>95</v>
@@ -1312,7 +1312,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>96</v>
@@ -1323,16 +1323,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>98</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>99</v>
@@ -1352,7 +1352,7 @@
         <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>100</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>101</v>
@@ -1372,7 +1372,7 @@
         <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>102</v>
@@ -1383,47 +1383,47 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>63</v>
@@ -1432,7 +1432,7 @@
         <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>64</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>65</v>
@@ -1452,7 +1452,7 @@
         <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>66</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>67</v>
@@ -1472,7 +1472,7 @@
         <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>68</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>69</v>
@@ -1492,7 +1492,7 @@
         <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>70</v>
@@ -1503,16 +1503,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>72</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>73</v>
@@ -1532,7 +1532,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>74</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>75</v>
@@ -1552,7 +1552,7 @@
         <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>76</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>77</v>
@@ -1572,7 +1572,7 @@
         <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>78</v>
@@ -1583,16 +1583,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>80</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>81</v>
@@ -1612,7 +1612,7 @@
         <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>82</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>83</v>
@@ -1632,7 +1632,7 @@
         <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>84</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>85</v>
@@ -1652,7 +1652,7 @@
         <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>86</v>
@@ -1663,16 +1663,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>88</v>
@@ -1683,7 +1683,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>89</v>
@@ -1692,7 +1692,7 @@
         <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>90</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>91</v>
@@ -1712,7 +1712,7 @@
         <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>92</v>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>93</v>
@@ -1732,7 +1732,7 @@
         <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>94</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>95</v>
@@ -1752,7 +1752,7 @@
         <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>96</v>
@@ -1763,16 +1763,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>98</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>99</v>
@@ -1792,7 +1792,7 @@
         <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>100</v>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>101</v>
@@ -1812,7 +1812,7 @@
         <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>102</v>
@@ -1826,33 +1826,33 @@
         <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>62</v>
@@ -1863,56 +1863,56 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C73" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>62</v>
@@ -1923,39 +1923,39 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -1963,10 +1963,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>14</v>
@@ -1975,7 +1975,7 @@
         <v>51</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -1983,10 +1983,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>14</v>
@@ -1995,9 +1995,29 @@
         <v>51</v>
       </c>
       <c r="E78" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="123">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -341,6 +347,9 @@
     <t>evento.separazione.avvocatoConiuge1</t>
   </si>
   <si>
+    <t>{evento.separazione.presenzaAvvocatoConiuge1,=,false}</t>
+  </si>
+  <si>
     <t>Foro di appartenenza</t>
   </si>
   <si>
@@ -351,6 +360,9 @@
   </si>
   <si>
     <t>evento.separazione.avvocatoConiuge2</t>
+  </si>
+  <si>
+    <t>{evento.separazione.presenzaAvvocatoConiuge2,=,false}</t>
   </si>
   <si>
     <t>foroAvvocatoConiuge2</t>
@@ -427,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -439,6 +451,7 @@
     <col min="4" max="4" width="35.62890625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.78515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="51.6640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -460,85 +473,100 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -560,1465 +588,1687 @@
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="123">
   <si>
     <t>Sezione</t>
   </si>
@@ -170,205 +170,205 @@
     <t>Dettaglio accordo</t>
   </si>
   <si>
+    <t>Parte in causa in giudizio pendente</t>
+  </si>
+  <si>
+    <t>evento.separazione</t>
+  </si>
+  <si>
+    <t>parteInGiudizioPendente</t>
+  </si>
+  <si>
+    <t>Autorità giudiziale</t>
+  </si>
+  <si>
+    <t>autoritaGiudiziaria</t>
+  </si>
+  <si>
+    <t>Data conferma accordo</t>
+  </si>
+  <si>
+    <t>dataConfermaAccordo</t>
+  </si>
+  <si>
+    <t>Marito</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>evento.intestatari[0]</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Nazionalita</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalita - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Moglie</t>
+  </si>
+  <si>
+    <t>evento.intestatari[1]</t>
+  </si>
+  <si>
+    <t>Avvocato Marito</t>
+  </si>
+  <si>
+    <t>evento.separazione.avvocatoConiuge1</t>
+  </si>
+  <si>
+    <t>{evento.separazione.presenzaAvvocatoConiuge1,=,false}</t>
+  </si>
+  <si>
+    <t>Foro di appartenenza</t>
+  </si>
+  <si>
+    <t>foroAvvocatoConiuge1</t>
+  </si>
+  <si>
+    <t>Avvocato Moglie</t>
+  </si>
+  <si>
+    <t>evento.separazione.avvocatoConiuge2</t>
+  </si>
+  <si>
+    <t>{evento.separazione.presenzaAvvocatoConiuge2,=,false}</t>
+  </si>
+  <si>
+    <t>foroAvvocatoConiuge2</t>
+  </si>
+  <si>
+    <t>Dettagli evento</t>
+  </si>
+  <si>
     <t>Tipo accordo</t>
   </si>
   <si>
-    <t>evento.separazione</t>
-  </si>
-  <si>
     <t>tipoAccordo</t>
-  </si>
-  <si>
-    <t>Parte in causa in giudizio pendente</t>
-  </si>
-  <si>
-    <t>parteInGiudizioPendente</t>
-  </si>
-  <si>
-    <t>Autorità giudiziale</t>
-  </si>
-  <si>
-    <t>autoritaGiudiziaria</t>
-  </si>
-  <si>
-    <t>Data conferma accordo</t>
-  </si>
-  <si>
-    <t>dataConfermaAccordo</t>
-  </si>
-  <si>
-    <t>Marito</t>
-  </si>
-  <si>
-    <t>Cognome</t>
-  </si>
-  <si>
-    <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>cognome</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
-  </si>
-  <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
-  </si>
-  <si>
-    <t>Moglie</t>
-  </si>
-  <si>
-    <t>evento.intestatari[1]</t>
-  </si>
-  <si>
-    <t>Avvocato Marito</t>
-  </si>
-  <si>
-    <t>evento.separazione.avvocatoConiuge1</t>
-  </si>
-  <si>
-    <t>{evento.separazione.presenzaAvvocatoConiuge1,=,false}</t>
-  </si>
-  <si>
-    <t>Foro di appartenenza</t>
-  </si>
-  <si>
-    <t>foroAvvocatoConiuge1</t>
-  </si>
-  <si>
-    <t>Avvocato Moglie</t>
-  </si>
-  <si>
-    <t>evento.separazione.avvocatoConiuge2</t>
-  </si>
-  <si>
-    <t>{evento.separazione.presenzaAvvocatoConiuge2,=,false}</t>
-  </si>
-  <si>
-    <t>foroAvvocatoConiuge2</t>
-  </si>
-  <si>
-    <t>Dettagli evento</t>
   </si>
   <si>
     <t>Presenza avvocato Marito</t>
@@ -439,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -991,7 +991,7 @@
         <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>53</v>
@@ -1000,7 +1000,7 @@
         <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>20</v>
@@ -1014,7 +1014,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>53</v>
@@ -1023,7 +1023,7 @@
         <v>58</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>20</v>
@@ -1031,22 +1031,22 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>20</v>
@@ -1054,22 +1054,22 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>20</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>65</v>
@@ -1086,7 +1086,7 @@
         <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>66</v>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>67</v>
@@ -1109,7 +1109,7 @@
         <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>68</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>69</v>
@@ -1132,7 +1132,7 @@
         <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>70</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>71</v>
@@ -1155,7 +1155,7 @@
         <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>72</v>
@@ -1169,16 +1169,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>74</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>75</v>
@@ -1201,7 +1201,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>76</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>77</v>
@@ -1224,7 +1224,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>78</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>79</v>
@@ -1247,7 +1247,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>80</v>
@@ -1261,16 +1261,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>82</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>83</v>
@@ -1293,7 +1293,7 @@
         <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>84</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>85</v>
@@ -1316,7 +1316,7 @@
         <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>86</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>87</v>
@@ -1339,7 +1339,7 @@
         <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>88</v>
@@ -1353,16 +1353,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>90</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>91</v>
@@ -1385,7 +1385,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>92</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>93</v>
@@ -1408,7 +1408,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>94</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>95</v>
@@ -1431,7 +1431,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>96</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>97</v>
@@ -1454,7 +1454,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>98</v>
@@ -1468,16 +1468,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>100</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>101</v>
@@ -1500,7 +1500,7 @@
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>102</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>103</v>
@@ -1523,7 +1523,7 @@
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>104</v>
@@ -1537,22 +1537,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>20</v>
@@ -1560,22 +1560,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>20</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>65</v>
@@ -1592,7 +1592,7 @@
         <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>66</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>67</v>
@@ -1615,7 +1615,7 @@
         <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>68</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>69</v>
@@ -1638,7 +1638,7 @@
         <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>70</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>71</v>
@@ -1661,7 +1661,7 @@
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>72</v>
@@ -1675,16 +1675,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>74</v>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>75</v>
@@ -1707,7 +1707,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>76</v>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>77</v>
@@ -1730,7 +1730,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>78</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>79</v>
@@ -1753,7 +1753,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>80</v>
@@ -1767,16 +1767,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>82</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>83</v>
@@ -1799,7 +1799,7 @@
         <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>84</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>85</v>
@@ -1822,7 +1822,7 @@
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>86</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>87</v>
@@ -1845,7 +1845,7 @@
         <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>88</v>
@@ -1859,16 +1859,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>90</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>91</v>
@@ -1891,7 +1891,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>92</v>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>93</v>
@@ -1914,7 +1914,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>94</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>95</v>
@@ -1937,7 +1937,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>96</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>97</v>
@@ -1960,7 +1960,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>98</v>
@@ -1974,16 +1974,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>100</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>101</v>
@@ -2006,7 +2006,7 @@
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>102</v>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>103</v>
@@ -2029,7 +2029,7 @@
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>104</v>
@@ -2046,36 +2046,36 @@
         <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>64</v>
@@ -2084,67 +2084,67 @@
         <v>14</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>64</v>
@@ -2153,61 +2153,61 @@
         <v>14</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
@@ -2216,7 +2216,7 @@
         <v>53</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2227,10 +2227,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>15</v>
@@ -2239,35 +2239,12 @@
         <v>53</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="124">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,34 +32,37 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Atto di matrimonio</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Atto di matrimonio straniero, tradotto e legalizzato</t>
+  </si>
+  <si>
+    <t>Certificato di residenza</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>121-quater</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Atto di matrimonio</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Atto di matrimonio straniero, tradotto e legalizzato</t>
-  </si>
-  <si>
-    <t>Certificato di residenza</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>121-quater</t>
-  </si>
-  <si>
-    <t>SI</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -589,1663 +592,1663 @@
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E75" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
@@ -344,7 +344,7 @@
     <t>evento.separazione.avvocatoConiuge1</t>
   </si>
   <si>
-    <t>{evento.separazione.presenzaAvvocatoConiuge1,=,false}</t>
+    <t>evento.separazione.presenzaAvvocatoConiuge1,=,false</t>
   </si>
   <si>
     <t>Foro di appartenenza</t>
@@ -359,7 +359,7 @@
     <t>evento.separazione.avvocatoConiuge2</t>
   </si>
   <si>
-    <t>{evento.separazione.presenzaAvvocatoConiuge2,=,false}</t>
+    <t>evento.separazione.presenzaAvvocatoConiuge2,=,false</t>
   </si>
   <si>
     <t>foroAvvocatoConiuge2</t>
@@ -454,7 +454,7 @@
     <col min="4" max="4" width="35.62890625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.78515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="51.6640625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="50.27734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -363,6 +363,12 @@
   </si>
   <si>
     <t>foroAvvocatoConiuge2</t>
+  </si>
+  <si>
+    <t>Accordo Separazione</t>
+  </si>
+  <si>
+    <t>evento.separazione.accordoSeparazione</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -442,16 +448,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.28125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.83203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="46.78515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="35.62890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="37.23046875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.78515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="50.27734375" customWidth="true" bestFit="true"/>
@@ -2187,16 +2193,16 @@
         <v>117</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E76" s="2" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2210,16 +2216,16 @@
         <v>117</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2233,21 +2239,297 @@
         <v>117</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D78" s="2" t="s">
+      <c r="C89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G78" s="2" t="s">
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="129">
   <si>
     <t>Sezione</t>
   </si>
@@ -98,6 +98,18 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Dati Generali</t>
+  </si>
+  <si>
+    <t>Data Evento Matrimonio</t>
+  </si>
+  <si>
+    <t>evento.separazione</t>
+  </si>
+  <si>
+    <t>dataEventoMatrimonio</t>
+  </si>
+  <si>
     <t>Atto di Matrimonio</t>
   </si>
   <si>
@@ -174,9 +186,6 @@
   </si>
   <si>
     <t>Parte in causa in giudizio pendente</t>
-  </si>
-  <si>
-    <t>evento.separazione</t>
   </si>
   <si>
     <t>parteInGiudizioPendente</t>
@@ -448,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -701,7 +710,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>30</v>
@@ -718,19 +727,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
@@ -741,19 +750,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -764,19 +773,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -787,19 +796,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -810,19 +819,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -833,19 +842,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -856,19 +865,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -879,19 +888,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -902,22 +911,22 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>21</v>
@@ -925,22 +934,22 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>21</v>
@@ -948,19 +957,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>14</v>
@@ -971,22 +980,22 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>21</v>
@@ -994,22 +1003,22 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>21</v>
@@ -1017,22 +1026,22 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>21</v>
@@ -1040,22 +1049,22 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>21</v>
@@ -1063,22 +1072,22 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>21</v>
@@ -1086,19 +1095,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1109,19 +1118,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1132,19 +1141,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1155,19 +1164,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1178,19 +1187,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1201,19 +1210,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1224,19 +1233,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1247,19 +1256,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1270,19 +1279,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1293,19 +1302,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1316,19 +1325,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1339,19 +1348,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1362,19 +1371,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1385,19 +1394,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1408,19 +1417,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1431,19 +1440,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1454,19 +1463,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1477,19 +1486,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1500,19 +1509,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1523,19 +1532,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1546,22 +1555,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>21</v>
@@ -1569,22 +1578,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>21</v>
@@ -1592,19 +1601,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1615,19 +1624,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1638,19 +1647,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1661,19 +1670,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1684,19 +1693,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1707,19 +1716,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1730,19 +1739,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1753,19 +1762,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1776,19 +1785,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1799,19 +1808,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1822,19 +1831,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1845,19 +1854,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1868,19 +1877,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1891,19 +1900,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1914,19 +1923,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1937,19 +1946,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1960,19 +1969,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1983,19 +1992,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2006,19 +2015,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2029,19 +2038,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2052,30 +2061,30 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>64</v>
@@ -2084,67 +2093,67 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>64</v>
@@ -2153,79 +2162,79 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2236,19 +2245,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2259,19 +2268,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2282,19 +2291,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2305,19 +2314,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2328,19 +2337,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2351,19 +2360,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2374,19 +2383,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2397,19 +2406,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2420,22 +2429,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>21</v>
@@ -2443,19 +2452,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>14</v>
@@ -2466,22 +2475,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>21</v>
@@ -2489,19 +2498,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2512,24 +2521,47 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="151">
   <si>
     <t>Sezione</t>
   </si>
@@ -380,6 +380,66 @@
     <t>evento.separazione.accordoSeparazione</t>
   </si>
   <si>
+    <t>evento.separazione.tipoProvvedimentoSeparazione,=,1</t>
+  </si>
+  <si>
+    <t>Provvedimento della separazione</t>
+  </si>
+  <si>
+    <t>Data formazione documento</t>
+  </si>
+  <si>
+    <t>evento.separazione.provvedimentoSeparazione</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>evento.separazione.tipoProvvedimentoSeparazione,!=,1</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente</t>
+  </si>
+  <si>
+    <t>idProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Comune ente</t>
+  </si>
+  <si>
+    <t>idComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Indirizzo Ente</t>
+  </si>
+  <si>
+    <t>indirizzoEnte</t>
+  </si>
+  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
@@ -387,6 +447,12 @@
   </si>
   <si>
     <t>tipoAccordo</t>
+  </si>
+  <si>
+    <t>Tipo Separazione</t>
+  </si>
+  <si>
+    <t>tipoProvvedimentoSeparazione</t>
   </si>
   <si>
     <t>Presenza avvocato Marito</t>
@@ -457,19 +523,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="30.82421875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="46.78515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="37.23046875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="25.78515625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="43.8046875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="29.2265625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="50.27734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="51.3671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2240,7 +2306,7 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78">
@@ -2263,7 +2329,7 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79">
@@ -2286,7 +2352,7 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80">
@@ -2309,7 +2375,7 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81">
@@ -2332,7 +2398,7 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82">
@@ -2355,7 +2421,7 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83">
@@ -2378,7 +2444,7 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84">
@@ -2401,7 +2467,7 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85">
@@ -2424,7 +2490,7 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86">
@@ -2447,7 +2513,7 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87">
@@ -2470,7 +2536,7 @@
         <v>14</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88">
@@ -2493,75 +2559,282 @@
         <v>14</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" s="2" t="s">
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="2" t="s">
+      <c r="E97" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="168">
   <si>
     <t>Sezione</t>
   </si>
@@ -98,7 +98,7 @@
     <t>minuto</t>
   </si>
   <si>
-    <t>Dati Generali</t>
+    <t>Dati generali</t>
   </si>
   <si>
     <t>Data Evento Matrimonio</t>
@@ -108,6 +108,57 @@
   </si>
   <si>
     <t>dataEventoMatrimonio</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>evento.separazione.luogoEventoMatrimonio</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Comune estero</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Celebrato da</t>
+  </si>
+  <si>
+    <t>officianteEventoMatrimonio</t>
   </si>
   <si>
     <t>Atto di Matrimonio</t>
@@ -523,7 +574,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -793,19 +844,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
@@ -816,22 +867,22 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>21</v>
@@ -839,19 +890,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -862,19 +913,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -885,19 +936,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -908,22 +959,22 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>21</v>
@@ -931,22 +982,22 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>21</v>
@@ -954,7 +1005,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>47</v>
@@ -963,7 +1014,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>48</v>
@@ -977,22 +1028,22 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>21</v>
@@ -1000,19 +1051,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -1023,22 +1074,22 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>21</v>
@@ -1046,22 +1097,22 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>21</v>
@@ -1069,19 +1120,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -1092,22 +1143,22 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>21</v>
@@ -1115,19 +1166,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -1138,22 +1189,22 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>21</v>
@@ -1161,22 +1212,22 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>21</v>
@@ -1184,19 +1235,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1207,22 +1258,22 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>21</v>
@@ -1230,22 +1281,22 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>21</v>
@@ -1253,19 +1304,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1276,22 +1327,22 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>21</v>
@@ -1299,19 +1350,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1322,7 +1373,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>81</v>
@@ -1331,13 +1382,13 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>21</v>
@@ -1345,19 +1396,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1368,19 +1419,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1391,19 +1442,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1414,19 +1465,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1437,19 +1488,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1460,19 +1511,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1483,19 +1534,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1506,19 +1557,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1529,19 +1580,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1552,19 +1603,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1575,19 +1626,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1598,19 +1649,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1621,19 +1672,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1644,22 +1695,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>21</v>
@@ -1667,19 +1718,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1690,19 +1741,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1713,19 +1764,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1736,19 +1787,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1759,19 +1810,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1782,19 +1833,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1805,19 +1856,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1828,7 +1879,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>81</v>
@@ -1837,13 +1888,13 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>21</v>
@@ -1851,19 +1902,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1874,19 +1925,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1897,19 +1948,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1920,19 +1971,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1943,19 +1994,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1966,19 +2017,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1989,19 +2040,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2012,19 +2063,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2035,19 +2086,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2058,19 +2109,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2081,19 +2132,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2104,19 +2155,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2127,19 +2178,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2150,53 +2201,53 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>114</v>
@@ -2205,7 +2256,7 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>115</v>
@@ -2214,564 +2265,564 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>122</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>122</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>136</v>
+        <v>67</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E95" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E97" s="2" t="s">
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>145</v>
@@ -2780,7 +2831,7 @@
         <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>146</v>
@@ -2789,12 +2840,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>147</v>
@@ -2803,7 +2854,7 @@
         <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>148</v>
@@ -2812,12 +2863,12 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>149</v>
@@ -2826,7 +2877,7 @@
         <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>150</v>
@@ -2835,6 +2886,190 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="174">
   <si>
     <t>Sezione</t>
   </si>
@@ -242,6 +242,9 @@
     <t>parteInGiudizioPendente</t>
   </si>
   <si>
+    <t>evento.separazione.assegnoMantenimento,=,true</t>
+  </si>
+  <si>
     <t>Autorità giudiziale</t>
   </si>
   <si>
@@ -254,6 +257,15 @@
     <t>dataConfermaAccordo</t>
   </si>
   <si>
+    <t>evento.separazione.assegnoMantenimento,=,false</t>
+  </si>
+  <si>
+    <t>Dati assegno mantenimento/divorzile</t>
+  </si>
+  <si>
+    <t>datiAssegnoMantenimento</t>
+  </si>
+  <si>
     <t>Marito</t>
   </si>
   <si>
@@ -504,6 +516,12 @@
   </si>
   <si>
     <t>tipoProvvedimentoSeparazione</t>
+  </si>
+  <si>
+    <t>Assegno Mantentimento/Divorzile</t>
+  </si>
+  <si>
+    <t>assegnoMantenimento</t>
   </si>
   <si>
     <t>Presenza avvocato Marito</t>
@@ -574,7 +592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1322,7 +1340,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
@@ -1330,7 +1348,7 @@
         <v>73</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -1339,13 +1357,13 @@
         <v>30</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
@@ -1353,7 +1371,7 @@
         <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>15</v>
@@ -1362,125 +1380,125 @@
         <v>30</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>21</v>
@@ -1488,19 +1506,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1511,19 +1529,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1534,19 +1552,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1557,19 +1575,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1580,19 +1598,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1603,19 +1621,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1626,19 +1644,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1649,19 +1667,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1672,19 +1690,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1695,19 +1713,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1718,19 +1736,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1741,19 +1759,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1764,19 +1782,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1787,19 +1805,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1810,19 +1828,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1833,19 +1851,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1856,19 +1874,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1879,22 +1897,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>21</v>
@@ -1902,19 +1920,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1925,19 +1943,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1948,19 +1966,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1971,22 +1989,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>21</v>
@@ -1994,19 +2012,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2017,19 +2035,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2040,19 +2058,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2063,19 +2081,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2086,19 +2104,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2109,19 +2127,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2132,19 +2150,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2155,19 +2173,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2178,19 +2196,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2201,19 +2219,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2224,19 +2242,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2247,19 +2265,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2270,19 +2288,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2293,19 +2311,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2316,19 +2334,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2339,19 +2357,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2362,19 +2380,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2385,163 +2403,163 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E81" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86">
@@ -2549,19 +2567,19 @@
         <v>137</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>138</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>139</v>
@@ -2572,19 +2590,19 @@
         <v>137</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>138</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>139</v>
@@ -2595,16 +2613,16 @@
         <v>137</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2615,194 +2633,194 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>15</v>
@@ -2811,21 +2829,21 @@
         <v>142</v>
       </c>
       <c r="E97" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>15</v>
@@ -2834,242 +2852,357 @@
         <v>142</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>142</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>142</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="C107" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D108" s="2" t="s">
+      <c r="C110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E110" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="175">
   <si>
     <t>Sezione</t>
   </si>
@@ -149,7 +149,7 @@
     <t>nomeComune</t>
   </si>
   <si>
-    <t>Comune estero</t>
+    <t>Località estera</t>
   </si>
   <si>
     <t>comuneEstero</t>
@@ -215,24 +215,24 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
   </si>
   <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
     <t>Dettaglio accordo</t>
   </si>
   <si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -592,7 +595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1259,7 +1262,7 @@
         <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>51</v>
@@ -1268,7 +1271,7 @@
         <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>21</v>
@@ -1305,7 +1308,7 @@
         <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>51</v>
@@ -1314,7 +1317,7 @@
         <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>21</v>
@@ -1716,16 +1719,16 @@
         <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>86</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1739,7 +1742,7 @@
         <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
@@ -1748,7 +1751,7 @@
         <v>86</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1762,7 +1765,7 @@
         <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
@@ -1771,7 +1774,7 @@
         <v>86</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1785,7 +1788,7 @@
         <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
@@ -1794,7 +1797,7 @@
         <v>86</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1808,16 +1811,16 @@
         <v>84</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>86</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1831,7 +1834,7 @@
         <v>84</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
@@ -1840,7 +1843,7 @@
         <v>86</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1854,7 +1857,7 @@
         <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
@@ -1863,7 +1866,7 @@
         <v>86</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1877,7 +1880,7 @@
         <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
@@ -1886,7 +1889,7 @@
         <v>86</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1900,7 +1903,7 @@
         <v>84</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
@@ -1909,7 +1912,7 @@
         <v>86</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1923,16 +1926,16 @@
         <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>86</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1946,7 +1949,7 @@
         <v>84</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
@@ -1955,7 +1958,7 @@
         <v>86</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1969,7 +1972,7 @@
         <v>84</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
@@ -1978,7 +1981,7 @@
         <v>86</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1989,22 +1992,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>21</v>
@@ -2012,22 +2015,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>21</v>
@@ -2035,19 +2038,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2058,19 +2061,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2081,19 +2084,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2104,19 +2107,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2127,19 +2130,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2150,19 +2153,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2173,19 +2176,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2196,19 +2199,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2219,19 +2222,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2242,19 +2245,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2265,19 +2268,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2288,19 +2291,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2311,19 +2314,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2334,19 +2337,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2357,19 +2360,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2380,19 +2383,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2403,19 +2406,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2426,19 +2429,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2449,19 +2452,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2472,19 +2475,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2495,654 +2498,654 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>134</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>134</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F87" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="E88" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>15</v>
@@ -3151,7 +3154,7 @@
         <v>30</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3162,10 +3165,10 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>15</v>
@@ -3174,7 +3177,7 @@
         <v>30</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3185,10 +3188,10 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>15</v>
@@ -3197,12 +3200,58 @@
         <v>30</v>
       </c>
       <c r="E113" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
+      <c r="C115" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="178">
   <si>
     <t>Sezione</t>
   </si>
@@ -447,6 +447,15 @@
   </si>
   <si>
     <t>evento.separazione.tipoProvvedimentoSeparazione,=,1</t>
+  </si>
+  <si>
+    <t>Conferma Accordo Separazione</t>
+  </si>
+  <si>
+    <t>evento.separazione.confermaAccordoSeparazione</t>
+  </si>
+  <si>
+    <t>evento.separazione.tipoProvvedimentoSeparazione,!=,3</t>
   </si>
   <si>
     <t>Provvedimento della separazione</t>
@@ -595,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -604,7 +613,7 @@
     <col min="1" max="1" width="30.82421875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="46.78515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="43.8046875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="46.0390625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="29.2265625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="51.3671875" customWidth="true" bestFit="true"/>
@@ -2961,22 +2970,22 @@
         <v>145</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" s="2" t="s">
+      <c r="E103" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="104">
@@ -2984,22 +2993,22 @@
         <v>145</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="105">
@@ -3007,22 +3016,22 @@
         <v>145</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="106">
@@ -3030,22 +3039,22 @@
         <v>145</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>154</v>
+        <v>57</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="107">
@@ -3053,22 +3062,22 @@
         <v>145</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>156</v>
+        <v>59</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="108">
@@ -3076,22 +3085,22 @@
         <v>145</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="109">
@@ -3099,22 +3108,22 @@
         <v>145</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="110">
@@ -3122,136 +3131,412 @@
         <v>145</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>169</v>
+        <v>69</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>172</v>
+        <v>72</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" s="2" t="s">
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
+      <c r="E126" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="186">
   <si>
     <t>Sezione</t>
   </si>
@@ -405,6 +405,30 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Moglie</t>
@@ -604,7 +628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2024,22 +2048,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>21</v>
@@ -2047,19 +2071,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2070,19 +2094,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2093,19 +2117,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2116,22 +2140,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>21</v>
@@ -2139,19 +2163,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2162,19 +2186,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2185,19 +2209,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2208,19 +2232,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2231,19 +2255,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2254,19 +2278,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2277,19 +2301,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2300,19 +2324,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2323,19 +2347,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2346,19 +2370,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2369,19 +2393,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2392,19 +2416,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2415,19 +2439,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2438,19 +2462,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2461,19 +2485,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2484,19 +2508,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2507,19 +2531,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2530,19 +2554,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2553,990 +2577,1174 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D93" s="2" t="s">
+      <c r="E93" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="E94" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>158</v>
+        <v>65</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>162</v>
+        <v>68</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>163</v>
+        <v>69</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="C127" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D127" s="2" t="s">
+      <c r="C131" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E131" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
@@ -3365,7 +3365,7 @@
         <v>66</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>154</v>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="188">
   <si>
     <t>Sezione</t>
   </si>
@@ -284,6 +284,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -335,13 +341,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -628,7 +634,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1571,7 +1577,7 @@
         <v>90</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>86</v>
@@ -1663,7 +1669,7 @@
         <v>98</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>86</v>
@@ -1752,7 +1758,7 @@
         <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
@@ -1761,7 +1767,7 @@
         <v>86</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1775,10 +1781,10 @@
         <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>86</v>
@@ -1870,7 +1876,7 @@
         <v>115</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>86</v>
@@ -1985,7 +1991,7 @@
         <v>125</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>86</v>
@@ -2054,7 +2060,7 @@
         <v>131</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>86</v>
@@ -2140,22 +2146,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>21</v>
@@ -2163,22 +2169,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>21</v>
@@ -2186,19 +2192,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2209,19 +2215,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2232,19 +2238,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2255,19 +2261,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2278,19 +2284,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2301,19 +2307,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2324,19 +2330,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2347,19 +2353,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2370,19 +2376,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2393,19 +2399,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2416,19 +2422,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2439,19 +2445,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2462,19 +2468,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2485,19 +2491,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2508,19 +2514,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2531,19 +2537,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2554,19 +2560,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2577,19 +2583,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2600,19 +2606,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2623,19 +2629,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2646,19 +2652,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2669,19 +2675,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2692,19 +2698,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2715,19 +2721,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2738,19 +2744,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2764,7 +2770,7 @@
         <v>141</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -2773,13 +2779,13 @@
         <v>142</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94">
@@ -2787,7 +2793,7 @@
         <v>141</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -2796,895 +2802,895 @@
         <v>142</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E95" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F97" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
+      <c r="E111" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" s="2" t="s">
+      <c r="E112" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="E123" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E124" s="2" t="s">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="C132" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>15</v>
@@ -3693,7 +3699,7 @@
         <v>30</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3704,10 +3710,10 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>15</v>
@@ -3716,7 +3722,7 @@
         <v>30</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3727,10 +3733,10 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>15</v>
@@ -3739,12 +3745,58 @@
         <v>30</v>
       </c>
       <c r="E135" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="190">
   <si>
     <t>Sezione</t>
   </si>
@@ -353,6 +353,12 @@
     <t>nazionalita</t>
   </si>
   <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
+  </si>
+  <si>
     <t>Stato di residenza</t>
   </si>
   <si>
@@ -446,28 +452,28 @@
     <t>Avvocato Marito</t>
   </si>
   <si>
+    <t>Foro di appartenenza</t>
+  </si>
+  <si>
+    <t>foroAvvocatoConiuge1</t>
+  </si>
+  <si>
+    <t>evento.separazione.presenzaAvvocatoConiuge1,=,false</t>
+  </si>
+  <si>
     <t>evento.separazione.avvocatoConiuge1</t>
   </si>
   <si>
-    <t>evento.separazione.presenzaAvvocatoConiuge1,=,false</t>
-  </si>
-  <si>
-    <t>Foro di appartenenza</t>
-  </si>
-  <si>
-    <t>foroAvvocatoConiuge1</t>
-  </si>
-  <si>
     <t>Avvocato Moglie</t>
   </si>
   <si>
+    <t>foroAvvocatoConiuge2</t>
+  </si>
+  <si>
+    <t>evento.separazione.presenzaAvvocatoConiuge2,=,false</t>
+  </si>
+  <si>
     <t>evento.separazione.avvocatoConiuge2</t>
-  </si>
-  <si>
-    <t>evento.separazione.presenzaAvvocatoConiuge2,=,false</t>
-  </si>
-  <si>
-    <t>foroAvvocatoConiuge2</t>
   </si>
   <si>
     <t>Accordo Separazione</t>
@@ -634,7 +640,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H185"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1853,7 +1859,7 @@
         <v>113</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>86</v>
@@ -1876,7 +1882,7 @@
         <v>115</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>86</v>
@@ -2014,7 +2020,7 @@
         <v>127</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>86</v>
@@ -2083,7 +2089,7 @@
         <v>133</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>86</v>
@@ -2169,22 +2175,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>21</v>
@@ -2192,22 +2198,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>21</v>
@@ -2215,19 +2221,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2238,19 +2244,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2261,19 +2267,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2284,19 +2290,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2307,19 +2313,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2330,19 +2336,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2353,19 +2359,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2376,19 +2382,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2399,19 +2405,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2422,19 +2428,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2445,19 +2451,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2468,19 +2474,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2491,19 +2497,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2514,19 +2520,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2537,19 +2543,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2560,19 +2566,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2583,19 +2589,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2606,19 +2612,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2629,19 +2635,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2652,19 +2658,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2675,19 +2681,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2698,19 +2704,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2721,19 +2727,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2744,19 +2750,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2767,19 +2773,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2790,19 +2796,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2816,7 +2822,7 @@
         <v>143</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -2825,13 +2831,13 @@
         <v>144</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96">
@@ -2839,7 +2845,7 @@
         <v>143</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2848,18 +2854,18 @@
         <v>144</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>146</v>
@@ -2877,12 +2883,12 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>85</v>
@@ -2900,12 +2906,12 @@
         <v>14</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>88</v>
@@ -2923,880 +2929,1984 @@
         <v>14</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>164</v>
+        <v>91</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>184</v>
+        <v>109</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D137" s="2" t="s">
+      <c r="C184" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="E184" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="192">
   <si>
     <t>Sezione</t>
   </si>
@@ -351,6 +351,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -640,7 +646,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H185"/>
+  <dimension ref="A1:H189"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2043,7 +2049,7 @@
         <v>129</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>86</v>
@@ -2112,7 +2118,7 @@
         <v>135</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>86</v>
@@ -2198,22 +2204,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>21</v>
@@ -2221,22 +2227,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>21</v>
@@ -2244,19 +2250,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2267,19 +2273,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2290,19 +2296,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2313,19 +2319,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2336,19 +2342,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2359,19 +2365,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2382,19 +2388,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2405,19 +2411,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2428,19 +2434,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2451,19 +2457,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2474,19 +2480,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2497,19 +2503,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2520,19 +2526,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2543,19 +2549,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2566,19 +2572,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2589,19 +2595,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2612,19 +2618,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2635,19 +2641,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2658,19 +2664,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2681,19 +2687,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2704,19 +2710,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2727,19 +2733,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2750,19 +2756,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2773,19 +2779,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2796,19 +2802,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2819,19 +2825,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2842,19 +2848,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2868,22 +2874,22 @@
         <v>145</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98">
@@ -2891,1180 +2897,1180 @@
         <v>145</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F99" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
@@ -4073,21 +4079,21 @@
         <v>155</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>15</v>
@@ -4096,21 +4102,21 @@
         <v>155</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>15</v>
@@ -4119,21 +4125,21 @@
         <v>155</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>15</v>
@@ -4142,757 +4148,757 @@
         <v>155</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
+      <c r="E161" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D162" s="2" t="s">
+      <c r="E162" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D163" s="2" t="s">
+      <c r="E163" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D164" s="2" t="s">
+      <c r="E164" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="E173" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="E174" s="2" t="s">
-        <v>166</v>
+        <v>68</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="E175" s="2" t="s">
-        <v>168</v>
+        <v>70</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="E176" s="2" t="s">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="C184" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>15</v>
@@ -4901,12 +4907,104 @@
         <v>30</v>
       </c>
       <c r="E185" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E188" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="194">
   <si>
     <t>Sezione</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -646,7 +652,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H189"/>
+  <dimension ref="A1:H192"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1359,7 +1365,7 @@
         <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>51</v>
@@ -1368,7 +1374,7 @@
         <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>21</v>
@@ -1376,59 +1382,59 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>30</v>
@@ -1437,18 +1443,18 @@
         <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>15</v>
@@ -1457,47 +1463,47 @@
         <v>30</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>30</v>
@@ -1506,18 +1512,18 @@
         <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
@@ -1526,56 +1532,56 @@
         <v>30</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>21</v>
@@ -1583,16 +1589,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>91</v>
@@ -1606,16 +1612,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>93</v>
@@ -1629,7 +1635,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>94</v>
@@ -1638,7 +1644,7 @@
         <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>95</v>
@@ -1652,7 +1658,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>96</v>
@@ -1661,7 +1667,7 @@
         <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>97</v>
@@ -1675,7 +1681,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>98</v>
@@ -1684,7 +1690,7 @@
         <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>99</v>
@@ -1698,16 +1704,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>101</v>
@@ -1721,7 +1727,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>102</v>
@@ -1730,7 +1736,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>103</v>
@@ -1744,7 +1750,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>104</v>
@@ -1753,7 +1759,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>105</v>
@@ -1767,7 +1773,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>106</v>
@@ -1776,7 +1782,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>107</v>
@@ -1790,19 +1796,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1813,16 +1819,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>110</v>
@@ -1836,7 +1842,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>111</v>
@@ -1845,7 +1851,7 @@
         <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>112</v>
@@ -1859,16 +1865,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>114</v>
@@ -1882,7 +1888,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>115</v>
@@ -1891,7 +1897,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>116</v>
@@ -1905,7 +1911,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>117</v>
@@ -1914,7 +1920,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>118</v>
@@ -1928,7 +1934,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>119</v>
@@ -1937,7 +1943,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>120</v>
@@ -1951,7 +1957,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>121</v>
@@ -1960,7 +1966,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>122</v>
@@ -1974,7 +1980,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>123</v>
@@ -1983,7 +1989,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>124</v>
@@ -1997,7 +2003,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>125</v>
@@ -2006,7 +2012,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>126</v>
@@ -2020,7 +2026,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>127</v>
@@ -2029,7 +2035,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>128</v>
@@ -2043,7 +2049,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>129</v>
@@ -2052,7 +2058,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>130</v>
@@ -2066,16 +2072,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>132</v>
@@ -2089,7 +2095,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>133</v>
@@ -2098,7 +2104,7 @@
         <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>134</v>
@@ -2112,7 +2118,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>135</v>
@@ -2121,7 +2127,7 @@
         <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>136</v>
@@ -2135,16 +2141,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>138</v>
@@ -2158,7 +2164,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>139</v>
@@ -2167,7 +2173,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>140</v>
@@ -2181,7 +2187,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>141</v>
@@ -2190,7 +2196,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>142</v>
@@ -2204,7 +2210,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>143</v>
@@ -2213,7 +2219,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>144</v>
@@ -2227,22 +2233,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F69" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>21</v>
@@ -2250,22 +2256,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>21</v>
@@ -2273,16 +2279,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>91</v>
@@ -2296,16 +2302,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>93</v>
@@ -2319,7 +2325,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>94</v>
@@ -2328,7 +2334,7 @@
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>95</v>
@@ -2342,7 +2348,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>96</v>
@@ -2351,7 +2357,7 @@
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>97</v>
@@ -2365,7 +2371,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>98</v>
@@ -2374,7 +2380,7 @@
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>99</v>
@@ -2388,16 +2394,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>101</v>
@@ -2411,7 +2417,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>102</v>
@@ -2420,7 +2426,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>103</v>
@@ -2434,7 +2440,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>104</v>
@@ -2443,7 +2449,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>105</v>
@@ -2457,7 +2463,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>106</v>
@@ -2466,7 +2472,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>107</v>
@@ -2480,19 +2486,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2503,16 +2509,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>110</v>
@@ -2526,7 +2532,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>111</v>
@@ -2535,7 +2541,7 @@
         <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>112</v>
@@ -2549,16 +2555,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>114</v>
@@ -2572,7 +2578,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>115</v>
@@ -2581,7 +2587,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>116</v>
@@ -2595,7 +2601,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>117</v>
@@ -2604,7 +2610,7 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>118</v>
@@ -2618,7 +2624,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>119</v>
@@ -2627,7 +2633,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>120</v>
@@ -2641,7 +2647,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>121</v>
@@ -2650,7 +2656,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>122</v>
@@ -2664,7 +2670,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>123</v>
@@ -2673,7 +2679,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>124</v>
@@ -2687,7 +2693,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>125</v>
@@ -2696,7 +2702,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>126</v>
@@ -2710,7 +2716,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>127</v>
@@ -2719,7 +2725,7 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>128</v>
@@ -2733,7 +2739,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>129</v>
@@ -2742,7 +2748,7 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>130</v>
@@ -2756,16 +2762,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>132</v>
@@ -2779,7 +2785,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>133</v>
@@ -2788,7 +2794,7 @@
         <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>134</v>
@@ -2802,7 +2808,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>135</v>
@@ -2811,7 +2817,7 @@
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>136</v>
@@ -2825,16 +2831,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>138</v>
@@ -2848,7 +2854,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>139</v>
@@ -2857,7 +2863,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>140</v>
@@ -2871,7 +2877,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>141</v>
@@ -2880,7 +2886,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>142</v>
@@ -2894,7 +2900,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>143</v>
@@ -2903,7 +2909,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>144</v>
@@ -2920,59 +2926,59 @@
         <v>147</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>150</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F100" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>89</v>
@@ -2981,12 +2987,12 @@
         <v>14</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>90</v>
@@ -2995,21 +3001,21 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>92</v>
@@ -3018,7 +3024,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>93</v>
@@ -3027,12 +3033,12 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>94</v>
@@ -3041,7 +3047,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>95</v>
@@ -3050,12 +3056,12 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>96</v>
@@ -3064,7 +3070,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>97</v>
@@ -3073,12 +3079,12 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>98</v>
@@ -3087,7 +3093,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>99</v>
@@ -3096,12 +3102,12 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>100</v>
@@ -3110,7 +3116,7 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>101</v>
@@ -3119,12 +3125,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>102</v>
@@ -3133,7 +3139,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>103</v>
@@ -3142,12 +3148,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>104</v>
@@ -3156,7 +3162,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>105</v>
@@ -3165,12 +3171,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>106</v>
@@ -3179,7 +3185,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>107</v>
@@ -3188,44 +3194,44 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>110</v>
@@ -3234,12 +3240,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>111</v>
@@ -3248,7 +3254,7 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>112</v>
@@ -3257,12 +3263,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>113</v>
@@ -3271,7 +3277,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>114</v>
@@ -3280,12 +3286,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>115</v>
@@ -3294,7 +3300,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>116</v>
@@ -3303,12 +3309,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>117</v>
@@ -3317,7 +3323,7 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>118</v>
@@ -3326,12 +3332,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>119</v>
@@ -3340,7 +3346,7 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>120</v>
@@ -3349,12 +3355,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>121</v>
@@ -3363,7 +3369,7 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>122</v>
@@ -3372,12 +3378,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>123</v>
@@ -3386,7 +3392,7 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>124</v>
@@ -3395,12 +3401,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>125</v>
@@ -3409,7 +3415,7 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>126</v>
@@ -3418,12 +3424,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>127</v>
@@ -3432,7 +3438,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>128</v>
@@ -3441,12 +3447,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>129</v>
@@ -3455,7 +3461,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>130</v>
@@ -3464,21 +3470,21 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>132</v>
@@ -3487,12 +3493,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>133</v>
@@ -3501,7 +3507,7 @@
         <v>15</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>134</v>
@@ -3510,12 +3516,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>135</v>
@@ -3524,7 +3530,7 @@
         <v>15</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>136</v>
@@ -3533,67 +3539,67 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F127" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>89</v>
@@ -3602,12 +3608,12 @@
         <v>14</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>90</v>
@@ -3616,21 +3622,21 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>92</v>
@@ -3639,7 +3645,7 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>93</v>
@@ -3648,12 +3654,12 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>94</v>
@@ -3662,7 +3668,7 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>95</v>
@@ -3671,12 +3677,12 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>96</v>
@@ -3685,7 +3691,7 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>97</v>
@@ -3694,12 +3700,12 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>98</v>
@@ -3708,7 +3714,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>99</v>
@@ -3717,12 +3723,12 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>100</v>
@@ -3731,7 +3737,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>101</v>
@@ -3740,12 +3746,12 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>102</v>
@@ -3754,7 +3760,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>103</v>
@@ -3763,12 +3769,12 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>104</v>
@@ -3777,7 +3783,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>105</v>
@@ -3786,12 +3792,12 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>106</v>
@@ -3800,7 +3806,7 @@
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>107</v>
@@ -3809,44 +3815,44 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>110</v>
@@ -3855,12 +3861,12 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>111</v>
@@ -3869,7 +3875,7 @@
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>112</v>
@@ -3878,12 +3884,12 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>113</v>
@@ -3892,7 +3898,7 @@
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>114</v>
@@ -3901,12 +3907,12 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>115</v>
@@ -3915,7 +3921,7 @@
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>116</v>
@@ -3924,12 +3930,12 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>117</v>
@@ -3938,7 +3944,7 @@
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>118</v>
@@ -3947,12 +3953,12 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>119</v>
@@ -3961,7 +3967,7 @@
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>120</v>
@@ -3970,12 +3976,12 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>121</v>
@@ -3984,7 +3990,7 @@
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>122</v>
@@ -3993,12 +3999,12 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>123</v>
@@ -4007,7 +4013,7 @@
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>124</v>
@@ -4016,12 +4022,12 @@
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>125</v>
@@ -4030,7 +4036,7 @@
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>126</v>
@@ -4039,12 +4045,12 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>127</v>
@@ -4053,7 +4059,7 @@
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>128</v>
@@ -4062,12 +4068,12 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>129</v>
@@ -4076,7 +4082,7 @@
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>130</v>
@@ -4085,21 +4091,21 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>132</v>
@@ -4108,12 +4114,12 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>133</v>
@@ -4122,7 +4128,7 @@
         <v>15</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>134</v>
@@ -4131,12 +4137,12 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>135</v>
@@ -4145,7 +4151,7 @@
         <v>15</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>136</v>
@@ -4154,820 +4160,820 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="2" t="s">
+      <c r="E165" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D166" s="2" t="s">
+      <c r="E166" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="E177" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="E178" s="2" t="s">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="E179" s="2" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="C187" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>15</v>
@@ -4976,7 +4982,7 @@
         <v>30</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
@@ -4987,10 +4993,10 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>15</v>
@@ -4999,12 +5005,81 @@
         <v>30</v>
       </c>
       <c r="E189" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F189" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G189" s="2" t="s">
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="198">
   <si>
     <t>Sezione</t>
   </si>
@@ -300,6 +300,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -652,7 +664,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H192"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1664,7 +1676,7 @@
         <v>96</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>88</v>
@@ -1687,7 +1699,7 @@
         <v>98</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>88</v>
@@ -1733,7 +1745,7 @@
         <v>102</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>88</v>
@@ -1756,7 +1768,7 @@
         <v>104</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>88</v>
@@ -1822,7 +1834,7 @@
         <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
@@ -1831,7 +1843,7 @@
         <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1845,16 +1857,16 @@
         <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1868,10 +1880,10 @@
         <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>88</v>
@@ -1894,7 +1906,7 @@
         <v>115</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>88</v>
@@ -1917,7 +1929,7 @@
         <v>117</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>88</v>
@@ -2101,7 +2113,7 @@
         <v>133</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>88</v>
@@ -2124,7 +2136,7 @@
         <v>135</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>88</v>
@@ -2170,7 +2182,7 @@
         <v>139</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>88</v>
@@ -2193,7 +2205,7 @@
         <v>141</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>88</v>
@@ -2256,22 +2268,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>21</v>
@@ -2279,19 +2291,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2302,22 +2314,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>21</v>
@@ -2325,19 +2337,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2348,19 +2360,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2371,19 +2383,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2394,19 +2406,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2417,19 +2429,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2440,19 +2452,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2463,19 +2475,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2486,19 +2498,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2509,19 +2521,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2532,19 +2544,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2555,19 +2567,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2578,19 +2590,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2601,19 +2613,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2624,19 +2636,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2647,19 +2659,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2670,19 +2682,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2693,19 +2705,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2716,19 +2728,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2739,19 +2751,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2762,19 +2774,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2785,19 +2797,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2808,19 +2820,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2831,19 +2843,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2854,19 +2866,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2877,19 +2889,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2900,19 +2912,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2923,19 +2935,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2946,640 +2958,640 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3590,10 +3602,10 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3602,10 +3614,10 @@
         <v>157</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>156</v>
@@ -3613,10 +3625,10 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3625,10 +3637,10 @@
         <v>157</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>156</v>
@@ -3636,19 +3648,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3659,19 +3671,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3682,19 +3694,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3705,485 +3717,485 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="154">
@@ -4191,16 +4203,16 @@
         <v>158</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4214,16 +4226,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4237,16 +4249,16 @@
         <v>158</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4260,16 +4272,16 @@
         <v>158</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4283,16 +4295,16 @@
         <v>158</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4306,16 +4318,16 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4329,16 +4341,16 @@
         <v>158</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4352,16 +4364,16 @@
         <v>158</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4372,424 +4384,424 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>15</v>
@@ -4798,21 +4810,21 @@
         <v>166</v>
       </c>
       <c r="E180" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>169</v>
+        <v>63</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>15</v>
@@ -4821,21 +4833,21 @@
         <v>166</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>15</v>
@@ -4844,242 +4856,426 @@
         <v>166</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>172</v>
+        <v>65</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>173</v>
+        <v>66</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>176</v>
+        <v>68</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>177</v>
+        <v>69</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>179</v>
+        <v>71</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>181</v>
+        <v>73</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="C194" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D192" s="2" t="s">
+      <c r="C198" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E192" s="2" t="s">
+      <c r="E198" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F192" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G192" s="2" t="s">
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="208">
   <si>
     <t>Sezione</t>
   </si>
@@ -482,19 +482,25 @@
     <t>foroAvvocatoConiuge1</t>
   </si>
   <si>
-    <t>evento.separazione.presenzaAvvocatoConiuge1,=,false</t>
+    <t>evento.separazione.presenzaAvvocatoConiuge1,=,false || evento.separazione.avvocatoUnico,=,true</t>
   </si>
   <si>
     <t>evento.separazione.avvocatoConiuge1</t>
   </si>
   <si>
+    <t>Avvocato</t>
+  </si>
+  <si>
+    <t>evento.separazione.avvocatoUnico,=,false</t>
+  </si>
+  <si>
     <t>Avvocato Moglie</t>
   </si>
   <si>
     <t>foroAvvocatoConiuge2</t>
   </si>
   <si>
-    <t>evento.separazione.presenzaAvvocatoConiuge2,=,false</t>
+    <t>evento.separazione.presenzaAvvocatoConiuge2,=,false || evento.separazione.avvocatoUnico,=,true</t>
   </si>
   <si>
     <t>evento.separazione.avvocatoConiuge2</t>
@@ -575,6 +581,18 @@
     <t>indirizzoEnte</t>
   </si>
   <si>
+    <t>Interprete</t>
+  </si>
+  <si>
+    <t>evento.interprete</t>
+  </si>
+  <si>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
@@ -594,6 +612,18 @@
   </si>
   <si>
     <t>assegnoMantenimento</t>
+  </si>
+  <si>
+    <t>Presenza interprete</t>
+  </si>
+  <si>
+    <t>ausilioInterprete</t>
+  </si>
+  <si>
+    <t>Avvocato unico per entrambe le parti</t>
+  </si>
+  <si>
+    <t>avvocatoUnico</t>
   </si>
   <si>
     <t>Presenza avvocato Marito</t>
@@ -664,7 +694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H259"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -676,7 +706,7 @@
     <col min="4" max="4" width="46.0390625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="29.2265625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="51.3671875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="90.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3723,19 +3753,19 @@
         <v>154</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E133" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="134">
@@ -3746,19 +3776,19 @@
         <v>87</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="135">
@@ -3769,19 +3799,19 @@
         <v>90</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="136">
@@ -3795,7 +3825,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>93</v>
@@ -3804,7 +3834,7 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137">
@@ -3818,7 +3848,7 @@
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>95</v>
@@ -3827,7 +3857,7 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="138">
@@ -3841,7 +3871,7 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>97</v>
@@ -3850,7 +3880,7 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139">
@@ -3864,7 +3894,7 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>99</v>
@@ -3873,7 +3903,7 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140">
@@ -3887,7 +3917,7 @@
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>101</v>
@@ -3896,7 +3926,7 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141">
@@ -3910,7 +3940,7 @@
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>103</v>
@@ -3919,7 +3949,7 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142">
@@ -3933,7 +3963,7 @@
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>105</v>
@@ -3942,7 +3972,7 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143">
@@ -3956,7 +3986,7 @@
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>107</v>
@@ -3965,7 +3995,7 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144">
@@ -3979,7 +4009,7 @@
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>109</v>
@@ -3988,7 +4018,7 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145">
@@ -4002,7 +4032,7 @@
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>111</v>
@@ -4011,7 +4041,7 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146">
@@ -4025,7 +4055,7 @@
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>113</v>
@@ -4034,7 +4064,7 @@
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147">
@@ -4048,7 +4078,7 @@
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>114</v>
@@ -4057,7 +4087,7 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="148">
@@ -4071,7 +4101,7 @@
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>116</v>
@@ -4080,7 +4110,7 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149">
@@ -4094,7 +4124,7 @@
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>118</v>
@@ -4103,7 +4133,7 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="150">
@@ -4117,7 +4147,7 @@
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>120</v>
@@ -4126,7 +4156,7 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="151">
@@ -4140,7 +4170,7 @@
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>122</v>
@@ -4149,7 +4179,7 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="152">
@@ -4163,7 +4193,7 @@
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>124</v>
@@ -4172,7 +4202,7 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="153">
@@ -4186,7 +4216,7 @@
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>126</v>
@@ -4195,7 +4225,7 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="154">
@@ -4209,7 +4239,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>128</v>
@@ -4218,7 +4248,7 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="155">
@@ -4232,7 +4262,7 @@
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>130</v>
@@ -4241,7 +4271,7 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="156">
@@ -4255,7 +4285,7 @@
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>132</v>
@@ -4264,7 +4294,7 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="157">
@@ -4278,7 +4308,7 @@
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>134</v>
@@ -4287,7 +4317,7 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="158">
@@ -4301,7 +4331,7 @@
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>136</v>
@@ -4310,7 +4340,7 @@
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="159">
@@ -4324,7 +4354,7 @@
         <v>15</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>138</v>
@@ -4333,7 +4363,7 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="160">
@@ -4347,7 +4377,7 @@
         <v>15</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>140</v>
@@ -4356,7 +4386,7 @@
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161">
@@ -4370,7 +4400,7 @@
         <v>15</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>142</v>
@@ -4379,222 +4409,222 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
@@ -4603,21 +4633,21 @@
         <v>163</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
@@ -4626,21 +4656,21 @@
         <v>163</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
@@ -4649,633 +4679,1990 @@
         <v>163</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>179</v>
+        <v>53</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>180</v>
+        <v>54</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>182</v>
+        <v>56</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>184</v>
+        <v>58</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>185</v>
+        <v>59</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>189</v>
+        <v>62</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>190</v>
+        <v>63</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>192</v>
+        <v>64</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>193</v>
+        <v>65</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>194</v>
+        <v>66</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>195</v>
+        <v>23</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="C224" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G250" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G251" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G252" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G253" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D200" s="2" t="s">
+      <c r="C254" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D254" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E200" s="2" t="s">
+      <c r="E254" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="2" t="s">
+      <c r="F254" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G254" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G255" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G256" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G257" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G259" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="209">
   <si>
     <t>Sezione</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>idAnsc</t>
+  </si>
+  <si>
+    <t>opzionale</t>
   </si>
   <si>
     <t>Provincia registrazione</t>
@@ -1166,7 +1169,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -1174,7 +1177,7 @@
         <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>15</v>
@@ -1183,13 +1186,13 @@
         <v>51</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22">
@@ -1197,7 +1200,7 @@
         <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>15</v>
@@ -1206,13 +1209,13 @@
         <v>51</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
@@ -1220,7 +1223,7 @@
         <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>15</v>
@@ -1229,13 +1232,13 @@
         <v>51</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24">
@@ -1243,7 +1246,7 @@
         <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>15</v>
@@ -1252,13 +1255,13 @@
         <v>51</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1266,7 +1269,7 @@
         <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>15</v>
@@ -1275,13 +1278,13 @@
         <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26">
@@ -1289,7 +1292,7 @@
         <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>15</v>
@@ -1304,7 +1307,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27">
@@ -1312,7 +1315,7 @@
         <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>15</v>
@@ -1321,13 +1324,13 @@
         <v>51</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28">
@@ -1335,7 +1338,7 @@
         <v>49</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -1347,10 +1350,10 @@
         <v>23</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29">
@@ -1358,7 +1361,7 @@
         <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
@@ -1367,13 +1370,13 @@
         <v>51</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30">
@@ -1381,7 +1384,7 @@
         <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -1390,13 +1393,13 @@
         <v>51</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -1404,7 +1407,7 @@
         <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
@@ -1413,13 +1416,13 @@
         <v>51</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32">
@@ -1427,7 +1430,7 @@
         <v>49</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>15</v>
@@ -1436,21 +1439,21 @@
         <v>51</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>15</v>
@@ -1459,21 +1462,21 @@
         <v>30</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -1482,21 +1485,21 @@
         <v>30</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>15</v>
@@ -1505,21 +1508,21 @@
         <v>30</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>15</v>
@@ -1528,21 +1531,21 @@
         <v>30</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
@@ -1551,21 +1554,21 @@
         <v>30</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
@@ -1574,21 +1577,21 @@
         <v>30</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>15</v>
@@ -1597,30 +1600,30 @@
         <v>30</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>14</v>
@@ -1631,19 +1634,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1654,19 +1657,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1677,19 +1680,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1700,19 +1703,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1723,19 +1726,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1746,19 +1749,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1769,19 +1772,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1792,19 +1795,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1815,19 +1818,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1838,19 +1841,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1861,19 +1864,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1884,19 +1887,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1907,7 +1910,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>45</v>
@@ -1916,10 +1919,10 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1930,19 +1933,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1953,19 +1956,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1976,19 +1979,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1999,19 +2002,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -2022,19 +2025,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2045,19 +2048,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2068,19 +2071,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2091,19 +2094,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2114,19 +2117,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2137,19 +2140,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2160,19 +2163,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2183,19 +2186,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2206,19 +2209,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2229,19 +2232,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2252,19 +2255,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2275,19 +2278,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2298,19 +2301,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2321,19 +2324,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2344,19 +2347,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>14</v>
@@ -2367,19 +2370,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2390,19 +2393,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2413,19 +2416,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2436,19 +2439,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2459,19 +2462,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2482,19 +2485,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2505,19 +2508,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2528,19 +2531,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2551,19 +2554,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2574,19 +2577,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2597,19 +2600,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2620,19 +2623,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>45</v>
@@ -2652,10 +2655,10 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2666,19 +2669,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2689,19 +2692,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2712,19 +2715,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2735,19 +2738,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2758,19 +2761,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2781,19 +2784,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2804,19 +2807,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2827,19 +2830,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2850,19 +2853,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2873,19 +2876,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2896,19 +2899,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2919,19 +2922,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2942,19 +2945,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2965,19 +2968,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2988,19 +2991,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -3011,19 +3014,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -3034,19 +3037,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3057,19 +3060,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3080,10 +3083,10 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -3092,317 +3095,317 @@
         <v>30</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>45</v>
@@ -3411,346 +3414,346 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>15</v>
@@ -3759,317 +3762,317 @@
         <v>30</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E134" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E135" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E136" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E137" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E138" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E139" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E140" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E141" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E142" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E143" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E144" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E145" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E146" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>45</v>
@@ -4078,346 +4081,346 @@
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E148" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E149" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E150" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E151" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E152" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E153" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E154" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E155" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E156" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E157" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E158" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E159" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E160" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E161" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -4426,317 +4429,317 @@
         <v>30</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>45</v>
@@ -4745,343 +4748,343 @@
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D188" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D189" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D190" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>50</v>
@@ -5090,7 +5093,7 @@
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>52</v>
@@ -5099,136 +5102,136 @@
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>20</v>
@@ -5237,44 +5240,44 @@
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>23</v>
@@ -5283,104 +5286,104 @@
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>50</v>
@@ -5389,7 +5392,7 @@
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>52</v>
@@ -5398,136 +5401,136 @@
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>20</v>
@@ -5536,44 +5539,44 @@
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>23</v>
@@ -5582,587 +5585,587 @@
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>45</v>
@@ -6171,346 +6174,346 @@
         <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B252" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G252" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F252" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G252" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>15</v>
@@ -6519,7 +6522,7 @@
         <v>30</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>10</v>
@@ -6530,10 +6533,10 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>15</v>
@@ -6542,7 +6545,7 @@
         <v>30</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
@@ -6553,10 +6556,10 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>15</v>
@@ -6565,7 +6568,7 @@
         <v>30</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>10</v>
@@ -6576,10 +6579,10 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>15</v>
@@ -6588,7 +6591,7 @@
         <v>19</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>10</v>
@@ -6599,10 +6602,10 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>15</v>
@@ -6611,7 +6614,7 @@
         <v>30</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
@@ -6622,10 +6625,10 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>15</v>
@@ -6634,7 +6637,7 @@
         <v>30</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>10</v>
@@ -6645,10 +6648,10 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>15</v>
@@ -6657,7 +6660,7 @@
         <v>30</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>
